--- a/2025/10/2025-10-26/26_fixtures.xlsx
+++ b/2025/10/2025-10-26/26_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +488,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Galatasaray  - Göztepe: 1:1'</t>
+          <t>Galatasaray ✓ - Göztepe: 3:1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -507,6 +507,17 @@
           <t>76%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qarabağ FK  - FC Shamakhi: -:-'</t>
+          <t>Qarabağ FK  - FC Shamakhi: 0:0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -544,24 +555,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sporting Club Escaldes  - FS La Massana: 09:00</t>
+          <t>Arsenal FC ✓ - Crystal Palace: 1:0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.01</v>
+        <v>1.74</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sporting Club Escaldes</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>74%</t>
         </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -572,23 +594,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arsenal FC  - Crystal Palace: 1:0'</t>
+          <t>Sporting Club Escaldes  - FS La Massana: 09:00</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.81</v>
+        <v>4.98</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Sporting Club Escaldes</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>74%</t>
         </is>
       </c>
     </row>
@@ -600,11 +622,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wisla Kraków  - Stal Rzeszow: 1:0'</t>
+          <t>Wisla Kraków ✓ - Stal Rzeszow: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -616,8 +638,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73%</t>
-        </is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -628,15 +661,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ferencvárosi TC  - Zalaegerszegi TE FC: -:-'</t>
+          <t>FC Krasnodar ✓ - Rubin Kazan: 1:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.27</v>
+        <v>2.53</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ferencvárosi TC</t>
+          <t>FC Krasnodar</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -644,8 +677,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,7 +704,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -699,7 +743,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -723,15 +767,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FC Krasnodar  - Rubin Kazan: 15:45</t>
+          <t>PAOK Thessaloniki ✓ - Volos NPS: 3:0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Krasnodar</t>
+          <t>PAOK Thessaloniki</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -742,6 +786,17 @@
           <t>72%</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -751,11 +806,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FC Nomme United  - Kalev Tallinn U21: -:-'</t>
+          <t>FC Nomme United ✓ - Kalev Tallinn U21: 8:0</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -767,8 +822,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -818,15 +884,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FC RFS  - FK Grobina: 3:0'</t>
+          <t>NK Nafta 1903 ✓ - ND Bilje: 4:1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC RFS</t>
+          <t>NK Nafta 1903</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -837,6 +903,17 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -846,24 +923,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns FC  - Remo Stars FC: -:-'</t>
+          <t>FC RFS ✓ - FK Grobina: 5:0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns FC</t>
+          <t>FC RFS</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -874,24 +962,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FK Radnicki Nis - Red Star Belgrade : -:-'</t>
+          <t>Hapoel Beer Sheva ✓ - Maccabi Bnei Reineh: 1:0</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.47</v>
+        <v>2.38</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -902,24 +1001,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NK Nafta 1903  - ND Bilje: -:-'</t>
+          <t>Mjällby AIF ✓ - IFK Norrköping: 2:1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NK Nafta 1903</t>
+          <t>Mjällby AIF</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -930,24 +1040,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>St Joseph's FC  - Lions Gibraltar FC: 17:30</t>
+          <t>Real Madrid ✓ - FC Barcelona: 2:1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.43</v>
+        <v>3.99</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>St Joseph's FC</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -958,24 +1079,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Thimphu City FC  - BFF Academy FC: -:-'</t>
+          <t>St Joseph's FC ✓ - Lions Gibraltar FC: 3:1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.03</v>
+        <v>2.42</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Thimphu City FC</t>
+          <t>St Joseph's FC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -986,19 +1118,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva  - Maccabi Bnei Reineh: 17:15</t>
+          <t>Thimphu City FC  - BFF Academy FC: -:-'</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.43</v>
+        <v>3.03</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Thimphu City FC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1042,19 +1174,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mjällby AIF ✓ - IFK Norrköping: 2:1</t>
+          <t>Louisville City FC ✓ - Hartford Athletic: 1:0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mjällby AIF</t>
+          <t>Louisville City FC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1067,7 +1199,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1081,19 +1213,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Louisville City FC ✓ - Hartford Athletic: 1:0</t>
+          <t>Ferencvárosi TC X - Zalaegerszegi TE FC: 1:2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.83</v>
+        <v>2.24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Louisville City FC</t>
+          <t>Ferencvárosi TC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1102,11 +1234,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1120,15 +1252,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CD Tondela - Sporting CP : 17:00</t>
+          <t>Zenit St. Petersburg ✓ - Dynamo Moscow: 2:1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Zenit St. Petersburg</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1139,6 +1271,17 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1148,15 +1291,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zenit St. Petersburg  - Dynamo Moscow: 0:0'</t>
+          <t>CD Tondela - Sporting CP : 17:00</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.72</v>
+        <v>2.16</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Zenit St. Petersburg</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1164,7 +1307,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -1176,24 +1319,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki  - Volos NPS: 16:30</t>
+          <t>Buriram United ✓ - Rayong FC: 2:1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.43</v>
+        <v>3.22</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki</t>
+          <t>Buriram United</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>67%</t>
         </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1204,11 +1358,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AC Virtus Acquaviva  - SC Faetano: -:-'</t>
+          <t>AC Virtus Acquaviva ✓ - SC Faetano: 2:1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1223,6 +1377,17 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1232,15 +1397,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FC Victoria Rosport - FC Differdange 03 : -:-'</t>
+          <t>FC UNA Strassen ✓ - FC Rodange 91: 5:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.25</v>
+        <v>2.96</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Differdange 03</t>
+          <t>FC UNA Strassen</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1251,6 +1416,17 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1260,15 +1436,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Antigua GFC  - Aurora FC: 01:00</t>
+          <t>FC Victoria Rosport - FC Differdange 03 ✓: 0:2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Antigua GFC</t>
+          <t>FC Differdange 03</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1276,8 +1452,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>65%</t>
-        </is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1288,24 +1475,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FC UNA Strassen  - FC Rodange 91: -:-'</t>
+          <t>Al-Abbassieh FC - Nejmeh SC ✓: 0:1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.9</v>
+        <v>1.67</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC UNA Strassen</t>
+          <t>Nejmeh SC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>65%</t>
-        </is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1316,15 +1514,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Slovan Bratislava  - FC Tatran Presov: 16:00</t>
+          <t>Antigua GFC X - Aurora FC: 1:2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.59</v>
+        <v>2.17</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Antigua GFC</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1335,6 +1533,17 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1344,24 +1553,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FC Sellier &amp; Bellot Vlasim - FC Zbrojovka Brno : -:-'</t>
+          <t>Shakhtar Donetsk ✓ - FC Kudrivka: 4:0</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.64</v>
+        <v>2.24</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1372,24 +1592,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FK Bodø/Glimt  - Molde FK: -:-'</t>
+          <t>Yelimay Semey ✓ - FC Atyrau: 3:2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.03</v>
+        <v>2.03</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FK Bodø/Glimt</t>
+          <t>Yelimay Semey</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1400,24 +1631,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NorthEast United FC  - Inter Kashi FC: 2:2</t>
+          <t>FK Bodø/Glimt ✓ - Molde FK: 4:1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.82</v>
+        <v>4.09</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NorthEast United FC</t>
+          <t>FK Bodø/Glimt</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1428,24 +1670,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UD Almería  - CD Castellón: 16:30</t>
+          <t>FC Sellier &amp; Bellot Vlasim - FC Zbrojovka Brno ✓: 0:1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.58</v>
+        <v>1.64</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>UD Almería</t>
+          <t>FC Zbrojovka Brno</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>63%</t>
         </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1456,24 +1709,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Asociación Deportiva Tarma - Universitario de Deportes : 19:30</t>
+          <t>UD Almería ✓ - CD Castellón: 1:0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.74</v>
+        <v>2.49</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Universitario de Deportes</t>
+          <t>UD Almería</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>62%</t>
-        </is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1484,24 +1748,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk  - FC Kudrivka: 3:0'</t>
+          <t>Bodrum FK ✓ - Igdir FK: 2:0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Bodrum FK</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>62%</t>
         </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1512,15 +1787,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Al-Abbassieh FC - Nejmeh SC : -:-'</t>
+          <t>Asociación Deportiva Tarma - Universitario de Deportes ✓: 1:2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nejmeh SC</t>
+          <t>Universitario de Deportes</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1528,8 +1803,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>61%</t>
-        </is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1540,23 +1826,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Real Madrid  - FC Barcelona: -:-'</t>
+          <t>FK Radnicki Nis - Red Star Belgrade : 0:0</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.05</v>
+        <v>3.28</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -1568,15 +1854,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Yelimay Semey ✓ - FC Atyrau: 3:2</t>
+          <t>Mamelodi Sundowns FC ✓ - Remo Stars FC: 2:0</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yelimay Semey</t>
+          <t>Mamelodi Sundowns FC</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1593,10 +1879,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1607,19 +1893,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Buriram United ✓ - Rayong FC: 2:1</t>
+          <t>SC Braga ✓ - Casa Pia AC: 4:0</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Buriram United</t>
+          <t>SC Braga</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1632,10 +1918,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1646,15 +1932,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Manila Digger FC - Ezra FC X: 3:1</t>
+          <t>Liverpool FC Montevideo ✓ - CA Progreso: 3:1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ezra FC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1662,12 +1948,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1689,7 +1975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1724,24 +2010,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NS Mura - NK Celje : 18:15</t>
+          <t>Liaoning Tieren ✓ - Nantong Zhiyun: 1:0</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.34</v>
+        <v>1.59</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Liaoning Tieren</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>60%</t>
         </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1752,15 +2049,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Liaoning Tieren ✓ - Nantong Zhiyun: 1:0</t>
+          <t>Al-Jazira Club  - Ajman Club: 15:00</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Liaoning Tieren</t>
+          <t>Al-Jazira Club</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1771,17 +2068,6 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1791,19 +2077,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Club Aurora - Club Always Ready X: 1:0</t>
+          <t>Western Springs AFC ✓ - Auckland United FC: 2:1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.18</v>
+        <v>2.47</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Club Always Ready</t>
+          <t>Western Springs AFC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1812,11 +2098,11 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -1830,24 +2116,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán  - CD Cacahuatique: 0:0</t>
+          <t>Club Aurora - Club Always Ready X: 1:0</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.28</v>
+        <v>3.23</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán</t>
+          <t>Club Always Ready</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>58%</t>
-        </is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1858,11 +2155,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GB Football Club  - Champasak Avenir FC: 08:00</t>
+          <t>GB Football Club ✓ - Champasak Avenir FC: 5:1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1870,12 +2167,23 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>58%</t>
         </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1886,19 +2194,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua  - Dalian Yingbo: 2:2</t>
+          <t>Supreme FC  - Shatin: 1:1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.19</v>
+        <v>3.71</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Supreme FC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1914,24 +2222,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Supreme FC  - Shatin: -:-'</t>
+          <t>Zakho SC ✓ - Mosul SC: 1:0</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.71</v>
+        <v>0.97</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Supreme FC</t>
+          <t>Zakho SC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>58%</t>
         </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1942,15 +2261,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kecskeméti TE  - Karcagi SE: 15:00</t>
+          <t>FC Ulytau Zhezkazgan - Tobol Kostanay : 2:2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Kecskeméti TE</t>
+          <t>Tobol Kostanay</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1958,7 +2277,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -1970,15 +2289,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Panathinaikos FC  - Asteras Aktor: -:-'</t>
+          <t>NorthEast United FC  - Inter Kashi FC: 2:2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.06</v>
+        <v>2.87</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Panathinaikos FC</t>
+          <t>NorthEast United FC</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1986,7 +2305,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1998,15 +2317,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FC Ulytau Zhezkazgan - Tobol Kostanay : 2:2</t>
+          <t>Kecskeméti TE ✓ - Karcagi SE: 2:0</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tobol Kostanay</t>
+          <t>Kecskeméti TE</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2017,6 +2336,17 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2026,15 +2356,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Deportivo Guadalajara ✓ - Atlas Guadalajara: 4:1</t>
+          <t>Malut United FC ✓ - Semen Padang FC: 1:0</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Deportivo Guadalajara</t>
+          <t>Malut United FC</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2051,10 +2381,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2065,15 +2395,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Budapesti VSC - Zugló - Vasas FC : 0:0</t>
+          <t>Deportivo Guadalajara ✓ - Atlas Guadalajara: 4:1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vasas FC</t>
+          <t>Deportivo Guadalajara</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2084,6 +2414,17 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2093,15 +2434,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado  - La Luz FC: 13:00</t>
+          <t>Budapesti VSC - Zugló - Vasas FC : 0:0</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>Vasas FC</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2109,7 +2450,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -2121,24 +2462,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CE Casa de Portugal  - FC Santa Coloma B: 13:00</t>
+          <t>FC Vaduz ✓ - Etoile Carouge FC: 3:1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.95</v>
+        <v>1.81</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CE Casa de Portugal</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>55%</t>
         </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2149,35 +2501,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>True Bangkok United ✓ - Lamphun Warriors: 4:3</t>
+          <t>CF Esperança d'Andorra - FC Rànger's X: 3:1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.16</v>
+        <v>4.71</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>True Bangkok United</t>
+          <t>FC Rànger's</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2188,23 +2540,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sporting San Miguelito  - CD Árabe Unido: 0:0</t>
+          <t>Shanghai Shenhua  - Dalian Yingbo: 2:2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.62</v>
+        <v>2.22</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sporting San Miguelito</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -2216,23 +2568,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rivers United FC - Black Bulls : 14:00</t>
+          <t>Chongqing Tonglianglong  - Shijiazhuang Gongfu: 0:0</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Black Bulls</t>
+          <t>Chongqing Tonglianglong</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -2244,15 +2596,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CD O'Higgins - Coquimbo Unido : 20:30</t>
+          <t>Club Deportivo Maldonado  - La Luz FC: 13:00</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.06</v>
+        <v>1.63</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Club Deportivo Maldonado</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2260,7 +2612,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -2272,23 +2624,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras  - Cruzeiro Esporte Clube: 22:30</t>
+          <t>CE Casa de Portugal  - FC Santa Coloma B: 13:00</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.44</v>
+        <v>3.92</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras</t>
+          <t>CE Casa de Portugal</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -2300,15 +2652,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Medeama SC  - Swedru All Blacks United FC: -:-'</t>
+          <t>True Bangkok United ✓ - Lamphun Warriors: 4:3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Medeama SC</t>
+          <t>True Bangkok United</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2316,8 +2668,19 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2328,24 +2691,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CF Esperança d'Andorra - FC Rànger's : -:-'</t>
+          <t>KF Llapi - KF Drenica X: 4:3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.69</v>
+        <v>2.42</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FC Rànger's</t>
+          <t>KF Drenica</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2356,15 +2730,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KF Llapi - KF Drenica X: 4:3</t>
+          <t>CD O'Higgins - Coquimbo Unido ✓: 0:1</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>KF Drenica</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2372,19 +2746,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2395,69 +2769,151 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong  - Shijiazhuang Gongfu: 0:0</t>
+          <t>Rivers United FC - Black Bulls : 14:00</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong</t>
+          <t>Black Bulls</t>
         </is>
       </c>
       <c r="E65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sun Oct 26</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava X - FC Tatran Presov: 0:1</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sun Oct 26</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sociedade Esportiva Palmeiras  - Cruzeiro Esporte Clube: 0:0</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sociedade Esportiva Palmeiras</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>2.5</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="K65">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sun Oct 26</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Medeama SC ✓ - Swedru All Blacks United FC: 1:0</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Medeama SC</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="K69">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L65">
-        <f>(K65/K67)*100</f>
+      <c r="L69">
+        <f>(K69/K71)*100</f>
         <v/>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Sun Oct 26</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>GS Marko - Olympiacos Piraeus B : 12:00</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Olympiacos Piraeus B</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="K66">
+    <row r="70">
+      <c r="K70">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="67">
-      <c r="K67">
-        <f>K65+K66</f>
+    <row r="71">
+      <c r="K71">
+        <f>K69+K70</f>
         <v/>
       </c>
     </row>
